--- a/itnowstorage/Carga_Referencia.xlsx
+++ b/itnowstorage/Carga_Referencia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\source\repos\WebItNow\itnowstorage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Archivos a Cargar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B431D71A-882B-4714-96C9-CF13527539F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8B4663-8E29-4367-B88B-A517F2CC52E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4E4547B2-4CDB-4607-BD7B-0FDFA97468CE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Referencia</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>81.83.18.38.00 Ext. 28161</t>
+  </si>
+  <si>
+    <t>Siniestro</t>
+  </si>
+  <si>
+    <t>021834114-M</t>
+  </si>
+  <si>
+    <t>021834074-M</t>
   </si>
 </sst>
 </file>
@@ -117,18 +126,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -143,9 +146,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,9 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3C495C-BDE1-4E24-8907-446E67108D65}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -475,9 +479,10 @@
     <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,8 +513,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -531,7 +539,7 @@
       <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>20</v>
       </c>
       <c r="I2" t="s">
@@ -540,8 +548,11 @@
       <c r="J2" t="s">
         <v>19</v>
       </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -563,7 +574,7 @@
       <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
       <c r="I3" t="s">
@@ -571,6 +582,9 @@
       </c>
       <c r="J3" t="s">
         <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
